--- a/유닛 및 건물/건물기능과UI(단순화).xlsx
+++ b/유닛 및 건물/건물기능과UI(단순화).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\양과 늑대\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FAC031-5780-4C06-BDEA-1B7312889FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5B3A4-E4EF-4BC4-BDF2-B95D34D687F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
+    <workbookView xWindow="6912" yWindow="576" windowWidth="14676" windowHeight="10932" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
   <sheets>
     <sheet name="게임UI" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
     <t>요구 건물이 건설되지않아 훈련할 수 없는 유닛의 버튼입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>플레이어가 건설할 수 있는 건물 목록을 불러옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 버튼은 건설 버튼의 하위 버튼에 의해 오른쪽으로 밀려납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,15 +207,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +224,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -244,7 +269,7 @@
         <xdr:cNvPr id="6" name="그룹 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878678F5-50D5-42A5-887C-41ED88E739A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -263,7 +288,7 @@
           <xdr:cNvPr id="7" name="그룹 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77682171-E673-4ED6-BA36-6B616C4373B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -282,7 +307,7 @@
             <xdr:cNvPr id="21" name="직사각형 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCC236-93D9-477D-A219-C87CB1865911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -429,7 +454,7 @@
             <xdr:cNvPr id="22" name="직사각형 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F33F4F-8D4B-4331-9730-DCEF499B68C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -579,7 +604,7 @@
             <xdr:cNvPr id="23" name="직사각형 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE6BA8-D27A-4535-93FF-2901A876B7A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -730,7 +755,7 @@
           <xdr:cNvPr id="8" name="직사각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C438FAA-DEAE-4A1C-B625-C574A30D033A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -884,7 +909,7 @@
           <xdr:cNvPr id="9" name="직사각형 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FF92EB-0B95-458D-B3C5-ED42DFC30873}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1038,7 +1063,7 @@
           <xdr:cNvPr id="10" name="직사각형 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA66853-0BD5-4571-8566-6A8C0A3A5696}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1192,7 +1217,7 @@
           <xdr:cNvPr id="11" name="그림 10" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA77EF-0368-4FBD-988F-1EEAECF0A281}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1227,7 +1252,7 @@
           <xdr:cNvPr id="12" name="직사각형 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFAB8C9-AF46-416A-B675-F4014087B698}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1372,7 +1397,7 @@
           <xdr:cNvPr id="13" name="직사각형 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0367B4-5317-4146-AA49-34DAA1BA7AE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1517,7 +1542,7 @@
           <xdr:cNvPr id="14" name="직사각형 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED55DBE9-8E58-419B-873C-48F3B451F4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1662,7 +1687,7 @@
           <xdr:cNvPr id="15" name="직선 연결선 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31178756-4D97-46E7-B334-5A7195AC06F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1704,7 +1729,7 @@
           <xdr:cNvPr id="16" name="직선 연결선 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA6B73E-D716-42ED-BA77-FAECD12F0223}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1746,7 +1771,7 @@
           <xdr:cNvPr id="17" name="직선 연결선 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51208DB-6D57-4A37-AC4F-B5195E2B6E9E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1788,7 +1813,7 @@
           <xdr:cNvPr id="18" name="직사각형 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5415A7A9-817E-4617-BDB7-D2713530CE54}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1947,7 +1972,7 @@
           <xdr:cNvPr id="19" name="직사각형 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8237B8-F8F6-448A-A46F-C051FC6710A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2106,7 +2131,7 @@
           <xdr:cNvPr id="20" name="직사각형 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2107E3F7-35FE-466C-8CE0-C0BE1ED92DC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2281,7 +2306,7 @@
         <xdr:cNvPr id="24" name="그룹 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE347DC4-411E-404A-B380-8067CC587CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2325,7 @@
           <xdr:cNvPr id="25" name="그룹 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E2A426-9B54-4CD4-9D77-EC1D9CE13DF0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2319,7 +2344,7 @@
             <xdr:cNvPr id="34" name="직사각형 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCC236-93D9-477D-A219-C87CB1865911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2466,7 +2491,7 @@
             <xdr:cNvPr id="35" name="직사각형 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F33F4F-8D4B-4331-9730-DCEF499B68C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2616,7 +2641,7 @@
             <xdr:cNvPr id="36" name="직사각형 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE6BA8-D27A-4535-93FF-2901A876B7A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2766,7 +2791,7 @@
             <xdr:cNvPr id="37" name="직사각형 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0395B60D-3E3F-4005-B931-193FB954B9FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2925,7 +2950,7 @@
             <xdr:cNvPr id="38" name="그림 37" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2678831D-F469-48E2-A699-7599B380CAE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2959,7 +2984,7 @@
             <xdr:cNvPr id="39" name="직사각형 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C438FAA-DEAE-4A1C-B625-C574A30D033A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3118,7 +3143,7 @@
             <xdr:cNvPr id="40" name="직사각형 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FF92EB-0B95-458D-B3C5-ED42DFC30873}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3272,7 +3297,7 @@
             <xdr:cNvPr id="41" name="직사각형 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA66853-0BD5-4571-8566-6A8C0A3A5696}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3426,7 +3451,7 @@
             <xdr:cNvPr id="42" name="그림 41" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA77EF-0368-4FBD-988F-1EEAECF0A281}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3461,7 +3486,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9142ECE-481F-4B4F-A172-41E4683852F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3616,7 +3641,7 @@
             <xdr:cNvPr id="44" name="그룹 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F942EA3D-2BDB-40FD-AA33-9534628495EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3635,7 +3660,7 @@
               <xdr:cNvPr id="49" name="직사각형 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B6DD94-5E1D-49A5-9D38-45898B3EEE4B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3794,7 +3819,7 @@
               <xdr:cNvPr id="50" name="그림 49" descr="연, 손, 비행, 게임이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE9C37C-54CD-4C4D-A4E6-30B15A4E8AFB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3829,7 +3854,7 @@
               <xdr:cNvPr id="51" name="직사각형 50">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF62E12F-61DF-4DB6-A0B9-2DC2378A9372}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3985,7 +4010,7 @@
             <xdr:cNvPr id="45" name="그룹 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21756EA-8C2E-4021-828D-6E567DCDB13C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4004,7 +4029,7 @@
               <xdr:cNvPr id="46" name="직사각형 45">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6D9B41-B6CF-47B0-8945-55367DB85B5E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4163,7 +4188,7 @@
               <xdr:cNvPr id="47" name="그림 46" descr="야구, 방망이이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C498C813-5068-4887-95A6-095EF3C3100F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4197,7 +4222,7 @@
               <xdr:cNvPr id="48" name="직사각형 47">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC81B565-E4B7-42A1-B4B4-BCB79EE362B7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4354,7 +4379,7 @@
           <xdr:cNvPr id="26" name="직사각형 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67587F7F-0E29-4B3A-B822-F1FF76F8AE1C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4507,7 +4532,7 @@
           <xdr:cNvPr id="27" name="직사각형 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF997DF-3C96-4438-8E32-40B4A9403EFA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4660,7 +4685,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1877D74-3405-448F-93BD-6048A994036C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4805,7 +4830,7 @@
           <xdr:cNvPr id="29" name="직선 연결선 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22907A87-BC63-44DE-80FA-A49AAD67CC5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4847,7 +4872,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E602F8-A627-4A0B-9655-D62D4D01AB7C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4992,7 +5017,7 @@
           <xdr:cNvPr id="32" name="직선 연결선 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46E4ADA-E837-4F0F-A22D-3BDCA6BDFE91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5050,7 +5075,7 @@
         <xdr:cNvPr id="52" name="직사각형 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C33C70-1B35-4246-95C5-2B9CAEE03D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,7 +5163,7 @@
         <xdr:cNvPr id="53" name="직사각형 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7216C5B-7045-458E-BB19-8E81D02164A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5231,7 +5256,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ED05E7-5EC3-4C18-9515-BF3FEB93DBC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5250,7 +5275,7 @@
           <xdr:cNvPr id="13" name="그룹 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97AC285-61BB-48B7-B43F-BF1F23AF7AC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5269,7 +5294,7 @@
             <xdr:cNvPr id="24" name="직사각형 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D9481B-B765-418D-9233-8FD5704F9727}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5428,7 +5453,7 @@
             <xdr:cNvPr id="25" name="그림 24" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F81FA2-921E-47EF-94BA-6496063D8970}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5463,7 +5488,7 @@
           <xdr:cNvPr id="14" name="직사각형 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFFF2E9-B6A1-437B-A752-C5648F19588F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5618,7 +5643,7 @@
           <xdr:cNvPr id="15" name="직사각형 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA138F95-EB4B-4EFF-ACDA-BAE0E9EAA7CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5763,7 +5788,7 @@
           <xdr:cNvPr id="16" name="평행 사변형 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9F4EF-BDD5-4059-B2F6-40B211E37C1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5910,7 +5935,7 @@
           <xdr:cNvPr id="17" name="직사각형 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9F9210-D148-4C7E-AF43-4AC5B939D884}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6055,7 +6080,7 @@
           <xdr:cNvPr id="18" name="직선 연결선 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4FAA4C-5BEF-4F54-B66E-38D0CDAF1A6C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6097,7 +6122,7 @@
           <xdr:cNvPr id="19" name="직선 연결선 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5FF1AD-7B3B-42FE-B25E-D077CC274AF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6139,7 +6164,7 @@
           <xdr:cNvPr id="20" name="직선 연결선 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628D44B1-9243-4A26-94B8-0715FC19123A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6183,7 +6208,7 @@
           <xdr:cNvPr id="21" name="직사각형 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D34532-541E-409B-B89C-7279DDAC0D51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6342,7 +6367,7 @@
           <xdr:cNvPr id="22" name="직사각형 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51119352-65A2-49B4-9983-F344F695F1B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6501,7 +6526,7 @@
           <xdr:cNvPr id="23" name="직사각형 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B5133E-6882-4619-93B8-F62278BF2F7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6676,7 +6701,7 @@
         <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B792E354-34AF-4038-8C18-5EEA4A0562B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6695,7 +6720,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A959A333-52A8-4C1E-B87F-26F3A49FD4CE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6714,7 +6739,7 @@
             <xdr:cNvPr id="8" name="그룹 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6A74AF-C5F7-4E0A-9A14-B76531549ACA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6733,7 +6758,7 @@
               <xdr:cNvPr id="11" name="직사각형 10">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B91C0FB-D968-49DC-BF26-878CD1F7E0EF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6892,7 +6917,7 @@
               <xdr:cNvPr id="12" name="그림 11" descr="야구, 방망이이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E66C295-75E2-469A-BCD6-32E1E8B47EA6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -6927,7 +6952,7 @@
             <xdr:cNvPr id="9" name="직사각형 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992593CD-5B15-4FF4-BFE0-3230E3C7E768}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7082,7 +7107,7 @@
             <xdr:cNvPr id="10" name="직사각형 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1394520-6C25-472E-AE9D-20EE8E79D97C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7236,7 +7261,7 @@
           <xdr:cNvPr id="5" name="직사각형 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87AF457-EA3A-4757-9EBC-4482AF460ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7381,7 +7406,7 @@
           <xdr:cNvPr id="6" name="직선 연결선 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2493438A-ACA1-45B7-A1BC-D751287A725D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7423,7 +7448,7 @@
           <xdr:cNvPr id="7" name="직사각형 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5198C891-ECC9-46F3-B451-EAE037B8D668}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7588,22 +7613,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>668670</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583324</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69574</xdr:rowOff>
+      <xdr:colOff>539767</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27053</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2">
+        <xdr:cNvPr id="96" name="직사각형 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2A81F1-77F6-4A50-857D-C8BC1623E58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5C070B-1D6C-41CF-A540-7D18DFCF8164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7611,8 +7636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="668670" y="220980"/>
-          <a:ext cx="6620254" cy="3384274"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7245367" cy="3341753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7643,8 +7668,102 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -7655,23 +7774,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>170600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583214</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>539767</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3">
+        <xdr:cNvPr id="97" name="직사각형 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C904B576-794C-433D-92F4-614057217662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376744C5-798D-4689-B736-F2565A275137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7679,1198 +7798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670561" y="3043340"/>
-          <a:ext cx="6618253" cy="652360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3215</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166276</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>583324</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190478</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F4ECCB-0191-442F-8065-C542B9334AF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="675877" y="2814883"/>
-          <a:ext cx="6634068" cy="244919"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>331</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3EF205-A33A-42DD-9900-CE724392E141}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="675861" y="2791570"/>
-          <a:ext cx="662940" cy="241521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000">
-            <a:alpha val="50000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588305</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>578583</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622C29BF-A93A-4F5A-B7EB-083E897F487D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6623345" y="2817298"/>
-          <a:ext cx="660838" cy="247599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>669234</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>662939</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="직사각형 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE52603F-0614-4653-91D5-F65593099744}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1338469" y="2791570"/>
-          <a:ext cx="662940" cy="241521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000">
-            <a:alpha val="50000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>656954</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="직사각형 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E83936-67A1-4D73-96B9-D210F0294F63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2005145" y="2789468"/>
-          <a:ext cx="659513" cy="245280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655708</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645986</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD6BEBC-5C89-49BA-A21C-ECB97827BA85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2673694" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645198</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635476</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="직사각형 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A698B76-67C5-4EB0-9E98-3B1024690E91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3335846" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>634687</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>624965</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="직사각형 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F3B765-6649-42E4-978C-93B1E2F6C638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3997997" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>624177</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>614455</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="직사각형 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8815E547-6A00-43F8-A9E1-9C9DC815BC15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4660149" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>613667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>603944</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3840D781-E7F6-4B48-BAAA-99CF00460421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5322301" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>597901</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588179</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2D071A-97EA-411A-A724-C63C4C651D68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5979198" y="2814831"/>
-          <a:ext cx="662940" cy="247336"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>331328</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>136360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>641717</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>136633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6A0218-8FDB-419F-B80C-FB5BB63C9AAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3013568" y="1462240"/>
-          <a:ext cx="980949" cy="1105173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>416488</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A74D5A6-0183-4136-9382-D99C29F56218}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1005839" y="2065020"/>
-          <a:ext cx="751769" cy="754380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>667909</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>661614</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>48370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184DB1C4-1590-4A59-A0CE-BF6B55F8B07F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="667909" y="5550010"/>
-          <a:ext cx="664265" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000">
-            <a:alpha val="50000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>656405</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>646684</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50027</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2175CF-A07C-4780-9419-BFC0C33C6085}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4679765" y="5547908"/>
-          <a:ext cx="660839" cy="247599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF84888C-6F6A-4D7B-99F0-443288733A33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="3764280"/>
-          <a:ext cx="3505200" cy="1234440"/>
+          <a:off x="0" y="5722620"/>
+          <a:ext cx="10666747" cy="3341753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8901,1116 +7830,105 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건설 부지 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건물 건설을 시작할 때 차지하는 공간이며 해당 부지에 지어진 건물은 파괴되지 않는 한 영구히 해당 공간을 차지합니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>따라서 이미 다른 건물이 차지하고 있는 건설 공간과 겹치게 건설할 수 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D786D3-5E3E-4B22-82C6-364C4F653A30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="678180" y="5882640"/>
-          <a:ext cx="3505200" cy="1059180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건설 된 공간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>이미 다른 건물이 건설됐고 해당 공간을 차지한 상태입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>따라서 새로운 건물을 건설할 수 없습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E6791F-9C21-46AC-AF13-A7CF461C1265}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686300" y="5882640"/>
-          <a:ext cx="3505200" cy="1059180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건설 가능 공간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건물을 건설할 수 있는 공간입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333177</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>78565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>414386</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>170005</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E4222-391C-4E56-B9B8-A84300C36DF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1005839" y="2065020"/>
-          <a:ext cx="753871" cy="753592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>598564</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>211520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>465608</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>162910</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="그룹 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7E7EEC-C1FF-4471-B3DA-DA726FEB2B01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1939684" y="3084260"/>
-          <a:ext cx="537604" cy="614330"/>
-          <a:chOff x="1360564" y="3084260"/>
-          <a:chExt cx="537604" cy="614330"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="직사각형 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CD4120-2C84-479F-BCA2-3741B6029CB7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1360564" y="3084260"/>
-            <a:ext cx="537604" cy="588054"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="43" name="그림 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630CEBF7-C16C-4A2C-ADB8-DB2B1234C513}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1427304" y="3108344"/>
-            <a:ext cx="413057" cy="413166"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="TextBox 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3E4D85-1177-450D-B61B-E079072104F3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1404183" y="3488121"/>
-            <a:ext cx="457200" cy="210469"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
-              <a:t>150</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>213885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>489781</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>162910</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="그룹 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC96836-67B9-4F24-84A9-0EC01DE9C642}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2636520" y="3086625"/>
-          <a:ext cx="535501" cy="611965"/>
-          <a:chOff x="1996440" y="3086625"/>
-          <a:chExt cx="535501" cy="611965"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="직사각형 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05DA1EE-3310-432C-928F-2736811B18BC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1996440" y="3086625"/>
-            <a:ext cx="535501" cy="588053"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="2" name="그룹 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B9D902-A698-44F4-9BA8-187E6DBCE7BD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2043212" y="3122102"/>
-            <a:ext cx="457200" cy="576488"/>
-            <a:chOff x="2043212" y="3122102"/>
-            <a:chExt cx="457200" cy="576488"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="46" name="그림 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476B75B9-BF18-480B-96A1-C002B4312069}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2095762" y="3122102"/>
-              <a:ext cx="353807" cy="397549"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="TextBox 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AAF243-A446-4F35-B6A1-5A36328B33FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2043212" y="3488121"/>
-              <a:ext cx="457200" cy="210469"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
-                <a:t>100</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="그래픽 48" descr="커서">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251D5DCB-ACE8-47A4-B6BE-60EA92D5919C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3840480" y="1844040"/>
-          <a:ext cx="320040" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2671D2C-A5FB-4394-99B1-819F1519D1A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8092440" y="967740"/>
-          <a:ext cx="2880360" cy="1379220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건물쪽  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>UI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>는 수정중에 있습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>527609</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90744</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D2A7EC-82E9-47FC-9159-0D3E9CC5E3CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="739140" y="3147060"/>
-          <a:ext cx="459029" cy="479364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>메뉴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>645050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>433519</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90744</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAB6FCC-DC20-4072-84D1-F386D40BB046}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1315610" y="3147060"/>
-          <a:ext cx="459029" cy="479364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>건설</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>436169</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75504</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="직사각형 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720C5970-7096-423E-A487-A67179B87B12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3329940" y="3131820"/>
-          <a:ext cx="459029" cy="479364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>훈련</a:t>
-          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10357,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96EBC71-8655-410D-9428-2BC5C8F7B28D}">
   <dimension ref="A20:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10368,62 +8286,62 @@
   </cols>
   <sheetData>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10440,8 +8358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC614D55-717E-4FCC-B505-BA808C837618}">
   <dimension ref="A16:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10452,21 +8370,21 @@
   </cols>
   <sheetData>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -10480,7 +8398,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -10494,7 +8412,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -10508,7 +8426,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -10530,16 +8448,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE6AC59-F6AD-4A29-9D72-384283BE9B72}">
-  <dimension ref="A1"/>
+  <dimension ref="A17:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="4" max="4" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/유닛 및 건물/건물기능과UI(단순화).xlsx
+++ b/유닛 및 건물/건물기능과UI(단순화).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5B3A4-E4EF-4BC4-BDF2-B95D34D687F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AEA933-A419-4A46-942F-7DDFA1BD5BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6912" yWindow="576" windowWidth="14676" windowHeight="10932" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
   <sheets>
     <sheet name="게임UI" sheetId="3" r:id="rId1"/>
-    <sheet name="훈련UI" sheetId="4" r:id="rId2"/>
-    <sheet name="건설UI" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="훈련UI" sheetId="4" r:id="rId3"/>
+    <sheet name="건설UI" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +63,6 @@
   </si>
   <si>
     <t>유닛 목록을 불러옵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임의 메뉴를 불러옵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,6 +121,66 @@
     <t>훈련 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>훈련 목록 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 목록 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 목록 버튼이 선택된 상태입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검병 훈련 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투창병 훈련 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수 훈련 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검병을 훈련합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투창병을 훈련합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수를 훈련합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한된 훈련 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 단축키를 눌러 유닛을 훈련할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 무기를 아이콘으로 출력합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛을 훈련하는데 소모하는 재화 값입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 건물을 건설해야 해당 유닛을 훈련할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,13 +246,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +314,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -254,22 +357,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>185530</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>578391</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73613</xdr:rowOff>
+      <xdr:colOff>665757</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168156</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="그룹 5">
+        <xdr:cNvPr id="57" name="그룹 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93096482-F65F-433C-9FAE-E28D3C9B8492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,485 +380,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="205740" y="152400"/>
-          <a:ext cx="6842031" cy="3898853"/>
-          <a:chOff x="322946" y="389031"/>
-          <a:chExt cx="9051649" cy="4991217"/>
+          <a:off x="185530" y="0"/>
+          <a:ext cx="7430992" cy="3885391"/>
+          <a:chOff x="98009" y="417689"/>
+          <a:chExt cx="7430992" cy="3885391"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="그룹 6">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="직사각형 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="322946" y="389031"/>
-            <a:ext cx="9051649" cy="4531312"/>
-            <a:chOff x="2648136" y="1704025"/>
-            <a:chExt cx="6891544" cy="3449950"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="직사각형 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2648136" y="1704025"/>
-              <a:ext cx="6891544" cy="3421380"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="직사각형 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2650650" y="4470319"/>
-              <a:ext cx="6883302" cy="683656"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="직사각형 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2648136" y="4222818"/>
-              <a:ext cx="6887486" cy="247501"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="직사각형 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCC236-93D9-477D-A219-C87CB1865911}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -763,8 +399,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="424442" y="4111578"/>
-            <a:ext cx="689130" cy="753507"/>
+            <a:off x="351250" y="417689"/>
+            <a:ext cx="7175134" cy="3562171"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -795,7 +431,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="ko-KR"/>
@@ -892,24 +528,17 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>메뉴</a:t>
-            </a:r>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="직사각형 8">
+          <xdr:cNvPr id="59" name="직사각형 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F33F4F-8D4B-4331-9730-DCEF499B68C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -917,16 +546,354 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1453947" y="4106444"/>
-            <a:ext cx="689130" cy="753507"/>
+            <a:off x="353867" y="3268071"/>
+            <a:ext cx="7175134" cy="711789"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="직사각형 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE6BA8-D27A-4535-93FF-2901A876B7A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="351250" y="3010386"/>
+            <a:ext cx="7170909" cy="257686"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="그림 60" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA77EF-0368-4FBD-988F-1EEAECF0A281}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="636962" y="1936519"/>
+            <a:ext cx="1316114" cy="1085011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="직사각형 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF6CB0-A1A4-4AAB-867C-09156642F194}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="458836" y="3334304"/>
+            <a:ext cx="489511" cy="263823"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1048,22 +1015,22 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>건설</a:t>
+              <a:t>유닛</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="직사각형 9">
+          <xdr:cNvPr id="63" name="직사각형 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC15F12F-FDC6-4AB4-8F0E-0CFA41068922}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1071,16 +1038,19 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2483452" y="4105743"/>
-            <a:ext cx="689130" cy="753507"/>
+            <a:off x="458836" y="3656041"/>
+            <a:ext cx="489511" cy="262022"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln w="12700">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1202,57 +1172,22 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>훈련</a:t>
+              <a:t>건물</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="그림 10" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="직사각형 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="683380" y="2342606"/>
-            <a:ext cx="1660318" cy="1368774"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="직사각형 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A780EE-A597-44EC-A2F3-3B3A37007FF9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1260,14 +1195,14 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="372189" y="4105743"/>
-            <a:ext cx="820885" cy="777075"/>
+            <a:off x="398791" y="3334305"/>
+            <a:ext cx="607049" cy="262022"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="19050">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
@@ -1392,12 +1327,54 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="직선 연결선 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6689B471-E737-4D1D-9588-C25E1ECC8363}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="140209" y="3479151"/>
+            <a:ext cx="258583" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="직사각형 12">
+          <xdr:cNvPr id="66" name="직사각형 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C886629-8558-4E37-8BCC-E9551E76E7B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1405,14 +1382,14 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1390352" y="4110335"/>
-            <a:ext cx="820885" cy="777075"/>
+            <a:off x="398791" y="3656041"/>
+            <a:ext cx="607049" cy="262022"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="19050">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
@@ -1537,157 +1514,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="직사각형 13">
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="직선 연결선 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2422319" y="4097270"/>
-            <a:ext cx="820885" cy="777075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="직선 연결선 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF73658-DBE8-4FAB-AE06-A8548E01E216}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1696,93 +1528,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="773922" y="4876668"/>
-            <a:ext cx="0" cy="348475"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="직선 연결선 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1766893" y="4882818"/>
-            <a:ext cx="0" cy="342325"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="직선 연결선 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2828017" y="4859250"/>
-            <a:ext cx="0" cy="365893"/>
+          <a:xfrm flipV="1">
+            <a:off x="702315" y="3921777"/>
+            <a:ext cx="1" cy="275985"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1810,10 +1558,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="직사각형 17">
+          <xdr:cNvPr id="68" name="직사각형 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A1998B-72B3-4B79-851C-B8B7A8D36D8A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1821,8 +1569,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="682294" y="5110593"/>
-            <a:ext cx="189095" cy="269655"/>
+            <a:off x="98009" y="3373831"/>
+            <a:ext cx="147710" cy="210639"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1969,10 +1717,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="직사각형 18">
+          <xdr:cNvPr id="69" name="직사각형 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C2521-7C53-4945-BA64-2B3C79DBCBC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1980,8 +1728,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1672345" y="5107461"/>
-            <a:ext cx="189095" cy="269655"/>
+            <a:off x="628460" y="4092441"/>
+            <a:ext cx="147710" cy="210639"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2126,12 +1874,52 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>245332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93096482-F65F-433C-9FAE-E28D3C9B8492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="60960" y="60960"/>
+          <a:ext cx="7445143" cy="3509920"/>
+          <a:chOff x="98009" y="417689"/>
+          <a:chExt cx="7430992" cy="3562171"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="직사각형 19">
+          <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCC236-93D9-477D-A219-C87CB1865911}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2139,8 +1927,988 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2733469" y="5107461"/>
-            <a:ext cx="189095" cy="269655"/>
+            <a:off x="351250" y="417689"/>
+            <a:ext cx="7175134" cy="3562171"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="직사각형 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F33F4F-8D4B-4331-9730-DCEF499B68C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="353867" y="3268071"/>
+            <a:ext cx="7175134" cy="711789"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE6BA8-D27A-4535-93FF-2901A876B7A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="351250" y="3010386"/>
+            <a:ext cx="7170909" cy="257686"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="그림 30" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA77EF-0368-4FBD-988F-1EEAECF0A281}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="636962" y="1936519"/>
+            <a:ext cx="1316114" cy="1085011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="직사각형 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF6CB0-A1A4-4AAB-867C-09156642F194}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="458836" y="3334304"/>
+            <a:ext cx="489511" cy="263823"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>유닛</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="직사각형 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC15F12F-FDC6-4AB4-8F0E-0CFA41068922}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="458836" y="3656041"/>
+            <a:ext cx="489511" cy="262022"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>건물</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="직사각형 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A780EE-A597-44EC-A2F3-3B3A37007FF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398791" y="3334305"/>
+            <a:ext cx="607049" cy="262022"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="직선 연결선 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6689B471-E737-4D1D-9588-C25E1ECC8363}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="140209" y="3479151"/>
+            <a:ext cx="258583" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="직사각형 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A1998B-72B3-4B79-851C-B8B7A8D36D8A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="98009" y="3373831"/>
+            <a:ext cx="147710" cy="210639"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2275,7 +3043,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>3</a:t>
+              <a:t>1</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -2290,23 +3058,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>831939</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266411</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>144042</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212579</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26772</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="그룹 23">
+        <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10D8EDF-F3B2-4356-87D7-A5B8A1FC0B74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,18 +3082,404 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="5212080"/>
-          <a:ext cx="7177751" cy="3771162"/>
-          <a:chOff x="305530" y="410069"/>
-          <a:chExt cx="7177751" cy="3771162"/>
+          <a:off x="1158510" y="2883543"/>
+          <a:ext cx="578069" cy="626658"/>
+          <a:chOff x="3490268" y="3282726"/>
+          <a:chExt cx="576980" cy="636455"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="직사각형 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9170CF-232D-45EF-B968-87BF5C188520}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3520983" y="3321885"/>
+            <a:ext cx="546265" cy="597296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>150</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="그림 25" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD2E450-7431-4897-AC61-9D6D690C4E08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="11788" t="1" r="115" b="16354"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="3611657" y="3380871"/>
+            <a:ext cx="364916" cy="346482"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="직사각형 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC3AE2-8068-4D20-AC05-98CECF037510}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3490268" y="3282726"/>
+            <a:ext cx="230851" cy="252417"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Q</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>383804</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26772</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407FE301-639B-41CC-AF6B-0994AB1AA320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1907804" y="2895540"/>
+          <a:ext cx="559330" cy="614661"/>
+          <a:chOff x="4359631" y="3294723"/>
+          <a:chExt cx="554976" cy="624458"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="그룹 24">
+          <xdr:cNvPr id="20" name="그룹 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD748458-F978-4CD4-AED6-EEA72412A38F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2333,18 +3487,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="305530" y="410069"/>
-            <a:ext cx="7177751" cy="3562171"/>
-            <a:chOff x="305530" y="410069"/>
-            <a:chExt cx="7177751" cy="3562171"/>
+            <a:off x="4359631" y="3294723"/>
+            <a:ext cx="554976" cy="624458"/>
+            <a:chOff x="4285432" y="4009888"/>
+            <a:chExt cx="554976" cy="624458"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="직사각형 33">
+            <xdr:cNvPr id="22" name="직사각형 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCD926E-E7F6-4B2A-B666-6A8720A32F49}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2352,461 +3506,17 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="305530" y="410069"/>
-              <a:ext cx="7175134" cy="3562171"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="직사각형 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="308147" y="3260451"/>
-              <a:ext cx="7175134" cy="711789"/>
+              <a:off x="4294143" y="4037050"/>
+              <a:ext cx="546265" cy="597296"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
               </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="직사각형 35">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="305530" y="3002766"/>
-              <a:ext cx="7170909" cy="257686"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="직사각형 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3475263" y="3314265"/>
-              <a:ext cx="546265" cy="597296"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln w="12700">
               <a:solidFill>
@@ -2947,10 +3657,10 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="38" name="그림 37" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <xdr:cNvPr id="23" name="그림 22" descr="야구, 방망이이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F310F863-910F-4829-806F-0D2F0CA6B23E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2959,20 +3669,20 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
-            <a:srcRect l="11788" t="1" r="115" b="16354"/>
+            <a:srcRect l="11306" t="12589" r="7037" b="4945"/>
             <a:stretch/>
           </xdr:blipFill>
           <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="3565937" y="3373251"/>
-              <a:ext cx="364916" cy="346482"/>
+            <a:xfrm flipH="1">
+              <a:off x="4400575" y="4100825"/>
+              <a:ext cx="333399" cy="336705"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2981,10 +3691,10 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="직사각형 38">
+            <xdr:cNvPr id="24" name="직사각형 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9116584A-6ADD-4FB3-88C1-F3F1141CE2EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2992,509 +3702,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="385985" y="3331141"/>
-              <a:ext cx="546265" cy="597296"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Menu</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="직사각형 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1202061" y="3327072"/>
-              <a:ext cx="546265" cy="597296"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>건설</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="직사각형 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2018137" y="3326516"/>
-              <a:ext cx="546265" cy="597296"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>훈련</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="42" name="그림 41" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="591242" y="1928899"/>
-              <a:ext cx="1316114" cy="1085011"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="직사각형 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3444548" y="3275106"/>
+              <a:off x="4285432" y="4009888"/>
               <a:ext cx="230851" cy="252417"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3626,7 +3834,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Q</a:t>
+                <a:t>W</a:t>
               </a:r>
               <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
                 <a:solidFill>
@@ -3636,750 +3844,13 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="44" name="그룹 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5115115" y="3268200"/>
-              <a:ext cx="592421" cy="643361"/>
-              <a:chOff x="5115115" y="3268200"/>
-              <a:chExt cx="592421" cy="643361"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="49" name="직사각형 48">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5161271" y="3314265"/>
-                <a:ext cx="546265" cy="597296"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ko-KR"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>150</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="50" name="그림 49" descr="연, 손, 비행, 게임이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5230540" y="3270719"/>
-                <a:ext cx="424748" cy="567083"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="51" name="직사각형 50">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="5115115" y="3268200"/>
-                <a:ext cx="230851" cy="252417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ko-KR"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>E</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="45" name="그룹 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="4313911" y="3287103"/>
-              <a:ext cx="554976" cy="624458"/>
-              <a:chOff x="4285432" y="4009888"/>
-              <a:chExt cx="554976" cy="624458"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="46" name="직사각형 45">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4294143" y="4037050"/>
-                <a:ext cx="546265" cy="597296"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ko-KR"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>150</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="47" name="그림 46" descr="야구, 방망이이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:srcRect l="11306" t="12589" r="7037" b="4945"/>
-              <a:stretch/>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="4400575" y="4100825"/>
-                <a:ext cx="333399" cy="336705"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="48" name="직사각형 47">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="4285432" y="4009888"/>
-                <a:ext cx="230851" cy="252417"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ko-KR"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>W</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="직사각형 25">
+          <xdr:cNvPr id="21" name="직사각형 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5EA932-4C8F-4081-8E77-5933BB162C39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4387,7 +3858,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4322622" y="3313147"/>
+            <a:off x="4368341" y="3321885"/>
             <a:ext cx="546266" cy="597296"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4527,12 +3998,419 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412067</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1004488</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33678</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D933F1F-4CF6-4A81-AF0A-88EBCEA502C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2610981" y="2883543"/>
+          <a:ext cx="592421" cy="633564"/>
+          <a:chOff x="5160835" y="3275820"/>
+          <a:chExt cx="592421" cy="643361"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="그룹 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D3527A-5BED-46AC-8536-D4A4D24B46F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5160835" y="3275820"/>
+            <a:ext cx="592421" cy="643361"/>
+            <a:chOff x="5115115" y="3268200"/>
+            <a:chExt cx="592421" cy="643361"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="직사각형 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A275F12-A10F-4FE4-96D3-DD17F3EDC56D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5161271" y="3314265"/>
+              <a:ext cx="546265" cy="597296"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>150</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="그림 17" descr="연, 손, 비행, 게임이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0EA2E0-0112-413B-BF41-B685BA2FAD91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5230540" y="3270719"/>
+              <a:ext cx="424748" cy="567083"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="직사각형 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3803D0-380D-4947-9A5C-40277DEAEF5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5115115" y="3268200"/>
+              <a:ext cx="230851" cy="252417"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>E</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="직사각형 26">
+          <xdr:cNvPr id="16" name="직사각형 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F5FF4-8062-435F-A156-60B28383B81B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4540,8 +4418,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5161272" y="3313147"/>
-            <a:ext cx="546264" cy="597297"/>
+            <a:off x="5200394" y="3321884"/>
+            <a:ext cx="552862" cy="597297"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4680,12 +4558,1220 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>818108</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>248667</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A844D12-7566-4157-912A-13E3452757FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1145768" y="2939893"/>
+          <a:ext cx="626899" cy="641657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1135787</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1135787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A868F2D5-9476-4049-9FD7-CD71F81AFCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1463447" y="3581551"/>
+          <a:ext cx="0" cy="292344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>353510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309849</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEBA273-AD50-4AF9-A9CD-6A7877D50B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1877510" y="2942975"/>
+          <a:ext cx="626899" cy="641657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422742</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1049641</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FC316A-D709-4A82-BB03-7A79CBFEBFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2617302" y="2946407"/>
+          <a:ext cx="626899" cy="641657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14254</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AD453A-3A62-4468-B553-CD826FECE54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2208814" y="3581551"/>
+          <a:ext cx="0" cy="292344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738726</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA5FAAD-FC44-4508-B1AF-4CED0C8DB9F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2933286" y="3588064"/>
+          <a:ext cx="0" cy="292344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1061790</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA2F2E0-0F9D-4DCE-BA06-7307EA416485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389450" y="3768385"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>614655</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91805</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC001E09-DD5F-4104-B50B-43BDB5E66ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138655" y="3768384"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666583</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>814293</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F998B701-3F2F-4D08-8104-2858387EF8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2861143" y="3768384"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348832</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>205560</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="그룹 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97AC285-61BB-48B7-B43F-BF1F23AF7AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="399831" y="5809514"/>
+          <a:ext cx="2147915" cy="2233760"/>
+          <a:chOff x="899552" y="1192296"/>
+          <a:chExt cx="689130" cy="753507"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="직사각형 27">
+          <xdr:cNvPr id="82" name="직사각형 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D9481B-B765-418D-9233-8FD5704F9727}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4693,17 +5779,1803 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1969545" y="3319347"/>
-            <a:ext cx="641228" cy="607007"/>
+            <a:off x="899552" y="1192296"/>
+            <a:ext cx="689130" cy="753507"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>100</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="83" name="그림 82" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F81FA2-921E-47EF-94BA-6496063D8970}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="11788" t="1" r="115" b="16354"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1013940" y="1266708"/>
+            <a:ext cx="460353" cy="437098"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431221</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFFF2E9-B6A1-437B-A752-C5648F19588F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="524220" y="6197677"/>
+          <a:ext cx="230851" cy="252417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>206313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511978</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA138F95-EB4B-4EFF-ACDA-BAE0E9EAA7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471199" y="6149913"/>
+          <a:ext cx="364629" cy="407140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261890</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17993</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>194292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="평행 사변형 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9F4EF-BDD5-4059-B2F6-40B211E37C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585740" y="6253550"/>
+          <a:ext cx="1623003" cy="1484542"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 49743"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>848092</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280936</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="직사각형 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9F9210-D148-4C7E-AF43-4AC5B939D884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171942" y="7988062"/>
+          <a:ext cx="632994" cy="407140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="직선 연결선 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4FAA4C-5BEF-4F54-B66E-38D0CDAF1A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140259" y="6348497"/>
+          <a:ext cx="330940" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140259</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>629087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="직선 연결선 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5FF1AD-7B3B-42FE-B25E-D077CC274AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="140259" y="7003345"/>
+          <a:ext cx="812678" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>848092</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190632</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="직선 연결선 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628D44B1-9243-4A26-94B8-0715FC19123A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="57150" y="8191632"/>
+          <a:ext cx="1114792" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59502</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207212</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="직사각형 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D34532-541E-409B-B89C-7279DDAC0D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59502" y="6239455"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61609</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="직사각형 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51119352-65A2-49B4-9983-F344F695F1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61609" y="6890501"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="직사각형 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B5133E-6882-4619-93B8-F62278BF2F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="8086312"/>
+          <a:ext cx="147710" cy="210639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1244283</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3386759</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82095</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="그룹 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A959A333-52A8-4C1E-B87F-26F3A49FD4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3443197" y="5903763"/>
+          <a:ext cx="2142476" cy="2233761"/>
+          <a:chOff x="6318219" y="1847927"/>
+          <a:chExt cx="2142476" cy="2342618"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="그룹 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6A74AF-C5F7-4E0A-9A14-B76531549ACA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6318224" y="1847929"/>
+            <a:ext cx="2142471" cy="2342616"/>
+            <a:chOff x="2020282" y="1192296"/>
+            <a:chExt cx="689130" cy="753507"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="직사각형 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B91C0FB-D968-49DC-BF26-878CD1F7E0EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2020282" y="1192296"/>
+              <a:ext cx="689130" cy="753507"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>200</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="그림 80" descr="야구, 방망이이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E66C295-75E2-469A-BCD6-32E1E8B47EA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="11306" t="12589" r="7037" b="4945"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2093034" y="1210749"/>
+              <a:ext cx="543625" cy="549016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="직사각형 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992593CD-5B15-4FF4-BFE0-3230E3C7E768}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6428980" y="1882727"/>
+            <a:ext cx="230851" cy="252417"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+          <a:ln w="12700">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -4821,58 +7693,28 @@
           </a:lstStyle>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>w</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="직선 연결선 28">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="직사각형 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2300823" y="3923812"/>
-            <a:ext cx="0" cy="257419"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1394520-6C25-472E-AE9D-20EE8E79D97C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4880,16 +7722,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3409261" y="3307426"/>
-            <a:ext cx="2389754" cy="607007"/>
+            <a:off x="6318219" y="1847927"/>
+            <a:ext cx="2142471" cy="2342615"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -4910,7 +7756,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
           <a:lstStyle>
             <a:defPPr>
               <a:defRPr lang="ko-KR"/>
@@ -5008,74 +7854,36 @@
           </a:lstStyle>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="직선 연결선 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4575216" y="3910443"/>
-            <a:ext cx="0" cy="257419"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123664</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>3530802</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="직사각형 51">
+        <xdr:cNvPr id="74" name="직사각형 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87AF457-EA3A-4757-9EBC-4482AF460ECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,18 +7891,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1280160" y="8968740"/>
-          <a:ext cx="1988820" cy="624840"/>
+          <a:off x="3314414" y="6076950"/>
+          <a:ext cx="2407138" cy="2563446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
+        <a:noFill/>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5115,31 +7921,105 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>플레이어가 누른 버튼은 색상이 변경됩니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5148,22 +8028,79 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1889760</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>2315535</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2315535</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="직선 연결선 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2493438A-ACA1-45B7-A1BC-D751287A725D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4506285" y="8640397"/>
+          <a:ext cx="0" cy="378799"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2241663</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>227075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2389373</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="직사각형 52">
+        <xdr:cNvPr id="76" name="직사각형 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5198C891-ECC9-46F3-B451-EAE037B8D668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,8 +8108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3672840" y="8953500"/>
-          <a:ext cx="2324100" cy="342900"/>
+          <a:off x="4432413" y="8913875"/>
+          <a:ext cx="147710" cy="210639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,7 +8119,7 @@
         </a:solidFill>
         <a:ln w="12700">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5203,25 +8140,111 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>버튼의 하위 버튼들이 출력됩니다</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>.</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
             <a:solidFill>
@@ -5236,7 +8259,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7608,7 +10631,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8275,14 +11298,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96EBC71-8655-410D-9428-2BC5C8F7B28D}">
   <dimension ref="A20:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="26.296875" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -8295,47 +11320,39 @@
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
@@ -8345,7 +11362,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8355,11 +11372,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC5EDC-E95F-4F0E-896C-D85D5AEC68F4}">
+  <dimension ref="A20:D47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C21:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC614D55-717E-4FCC-B505-BA808C837618}">
   <dimension ref="A16:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8388,13 +11566,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -8402,13 +11580,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -8416,13 +11594,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -8430,13 +11608,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8446,7 +11624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE6AC59-F6AD-4A29-9D72-384283BE9B72}">
   <dimension ref="A17:D19"/>
   <sheetViews>
@@ -8479,13 +11657,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -8493,13 +11671,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/유닛 및 건물/건물기능과UI(단순화).xlsx
+++ b/유닛 및 건물/건물기능과UI(단순화).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C2729-8470-4E60-9691-73767338DB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEA92B-AF28-4078-817D-9A46297B2F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,32 @@
     <t>건물이 차지하는 타일의 수, 타일의 상태를 출력합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이미 다른 건물이 해당 타일을 차지한 상태입니다.
+따라서 건설할 건물이 해당 타일위에 존재할 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 타일에 건물을 건설할 수 있는 상태입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 불가 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 가능 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 예정 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설하려는 건물이 차지할 예정인 타일이 건설 가능 상태의 타일과 겹치면 타일이 초록색으로 바뀝니다.
+하지만 건설이 불가능한 상태의 타일이면 그대로 빨간색으로 출력됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +375,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -395,7 +433,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="185530" y="0"/>
-          <a:ext cx="7430992" cy="3885391"/>
+          <a:ext cx="7457970" cy="3869299"/>
           <a:chOff x="98009" y="417689"/>
           <a:chExt cx="7430992" cy="3885391"/>
         </a:xfrm>
@@ -8389,8 +8427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="87086" y="6063343"/>
-          <a:ext cx="7694216" cy="3552472"/>
+          <a:off x="87086" y="6236233"/>
+          <a:ext cx="7678208" cy="3661329"/>
           <a:chOff x="1338024" y="220980"/>
           <a:chExt cx="7694216" cy="3552472"/>
         </a:xfrm>
@@ -14540,7 +14578,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="141514" y="0"/>
-          <a:ext cx="7436993" cy="3886886"/>
+          <a:ext cx="7420985" cy="3995743"/>
           <a:chOff x="92008" y="417689"/>
           <a:chExt cx="7436993" cy="3886886"/>
         </a:xfrm>
@@ -19171,6 +19209,602 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>202154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="직사각형 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3172914-A615-4266-AB77-053BDE174BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11332028"/>
+          <a:ext cx="380999" cy="191269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>215197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="직사각형 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046D2B9-9D14-4BF5-A018-E9D7153A51AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13689106"/>
+          <a:ext cx="394447" cy="215197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>210533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="직사각형 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EA68BE-13A8-4A0A-8E6A-B84DF66DD399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="12801600"/>
+          <a:ext cx="385482" cy="201568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="b" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF6048A-1ABE-4AA7-84DC-905E003491EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10885714"/>
+          <a:ext cx="1077686" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>건설 타일 상태</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19514,8 +20148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96EBC71-8655-410D-9428-2BC5C8F7B28D}">
   <dimension ref="A20:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19591,8 +20225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC5EDC-E95F-4F0E-896C-D85D5AEC68F4}">
   <dimension ref="A20:D47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19750,10 +20384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D518F11-8568-4410-A3B7-701ACAE5EC3E}">
-  <dimension ref="A20:D48"/>
+  <dimension ref="A20:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19882,9 +20516,51 @@
         <v>38</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/유닛 및 건물/건물기능과UI(단순화).xlsx
+++ b/유닛 및 건물/건물기능과UI(단순화).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEA92B-AF28-4078-817D-9A46297B2F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A9309-6AE3-481C-9901-9E2B1DB1712A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
   <sheets>
     <sheet name="게임UI" sheetId="3" r:id="rId1"/>
     <sheet name="훈련UI" sheetId="5" r:id="rId2"/>
     <sheet name="건물" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마우스 커서의 x좌표를 기준으로 건설될 건물의 외형을 출력합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물이 차지하는 타일의 수, 타일의 상태를 출력합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +213,19 @@
   <si>
     <t>건설하려는 건물이 차지할 예정인 타일이 건설 가능 상태의 타일과 겹치면 타일이 초록색으로 바뀝니다.
 하지만 건설이 불가능한 상태의 타일이면 그대로 빨간색으로 출력됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 1이상 손상된 건물을 수리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 버튼을 클릭하면 마우스 커서의 x좌표를 기준으로 건설될 건물의 외형을 
+반투명한 상태로 타일 위에 출력합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,9 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,16 +383,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8326,7 +8339,7 @@
         <xdr:cNvPr id="37" name="직사각형 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0FF44D-A93B-48B0-9EFA-B6E8474D9915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8419,7 +8432,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560E0D04-46A0-42B7-BECC-B4D06D9D5795}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8427,8 +8440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="87086" y="6236233"/>
-          <a:ext cx="7678208" cy="3661329"/>
+          <a:off x="87086" y="6151517"/>
+          <a:ext cx="7682242" cy="3607989"/>
           <a:chOff x="1338024" y="220980"/>
           <a:chExt cx="7694216" cy="3552472"/>
         </a:xfrm>
@@ -8438,7 +8451,7 @@
           <xdr:cNvPr id="3" name="그룹 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89165427-5AD2-4E47-A97A-2824D23BA325}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8457,7 +8470,7 @@
             <xdr:cNvPr id="14" name="그룹 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6F3882-0B16-4248-BF91-FBFC7799C2C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8476,7 +8489,7 @@
               <xdr:cNvPr id="28" name="그룹 27">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1323B0A-860E-48A9-9841-332DD6393DF8}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8495,7 +8508,7 @@
                 <xdr:cNvPr id="45" name="그룹 44">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACE50CA-9DD9-42CC-930F-FC686D097500}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -8514,7 +8527,7 @@
                   <xdr:cNvPr id="53" name="직사각형 52">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5C070B-1D6C-41CF-A540-7D18DFCF8164}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8661,7 +8674,7 @@
                   <xdr:cNvPr id="54" name="직사각형 53">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A773FF96-B3EC-47DD-97DF-B734EAB41DD5}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8811,7 +8824,7 @@
                   <xdr:cNvPr id="55" name="직사각형 54">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9CA240-FB84-4DC1-9C12-990A16BA7733}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -8961,7 +8974,7 @@
                   <xdr:cNvPr id="56" name="직사각형 55">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96727C6-6BB2-4923-809F-13E048E78F19}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -9120,7 +9133,7 @@
                 <xdr:cNvPr id="46" name="직사각형 45">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45478DE9-BA74-41B6-8A15-B02BF1B3F44B}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9279,7 +9292,7 @@
                 <xdr:cNvPr id="47" name="직사각형 46">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2545EA2A-0A7C-492C-836A-0F8D73195FC8}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9438,7 +9451,7 @@
                 <xdr:cNvPr id="48" name="직사각형 47">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEC63F0-001E-4F6B-9AAE-46E3A8316F54}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9597,7 +9610,7 @@
                 <xdr:cNvPr id="49" name="직사각형 48">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96AF75C0-C5A5-4A99-B37A-7ABED89FC034}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9756,7 +9769,7 @@
                 <xdr:cNvPr id="50" name="그림 49">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9E6F57-0C08-467B-8FE6-AEF35E19C08C}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9791,7 +9804,7 @@
                 <xdr:cNvPr id="51" name="그림 50">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C78A04E-6FB6-408C-9013-836449B8E816}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9826,7 +9839,7 @@
                 <xdr:cNvPr id="52" name="그림 51" descr="건물, 실외, 컴퓨터, 도시이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D518508F-5D58-4611-9498-0AAF933EC2CC}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -9861,7 +9874,7 @@
               <xdr:cNvPr id="29" name="그래픽 89" descr="커서">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D765B7-3A73-4CAA-8507-308433AC557C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9899,7 +9912,7 @@
               <xdr:cNvPr id="30" name="그림 29" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4D210F-2DDD-4F0F-96CD-5E3140145532}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -9933,7 +9946,7 @@
               <xdr:cNvPr id="31" name="직사각형 30">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D366D00-E085-4529-8AFA-B6D0DA28F73A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10091,7 +10104,7 @@
               <xdr:cNvPr id="32" name="직사각형 31">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77285ACA-F8EE-48BE-8998-4C855B8BA421}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10249,7 +10262,7 @@
               <xdr:cNvPr id="33" name="직사각형 32">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3172914-A615-4266-AB77-053BDE174BF0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10407,7 +10420,7 @@
               <xdr:cNvPr id="34" name="직사각형 33">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046D2B9-9D14-4BF5-A018-E9D7153A51AD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10567,7 +10580,7 @@
               <xdr:cNvPr id="35" name="직사각형 34">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F66F0E6-75A8-4AEB-836C-E3565AFD3582}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10725,7 +10738,7 @@
               <xdr:cNvPr id="36" name="직사각형 35">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8390ECBF-2D86-4B03-975A-844C661EF8E1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -10883,7 +10896,7 @@
               <xdr:cNvPr id="37" name="직사각형 36">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C143EEC6-6865-4C6A-859C-0290ACDA6735}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11041,7 +11054,7 @@
               <xdr:cNvPr id="38" name="직사각형 37">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0738C63-E4CE-470C-BB91-FA323B1DF1C3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11199,7 +11212,7 @@
               <xdr:cNvPr id="39" name="직사각형 38">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E2B34B-8D4D-4A29-8E6B-99041D435CB9}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11357,7 +11370,7 @@
               <xdr:cNvPr id="40" name="직사각형 39">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1209D33C-0726-4D07-9DDA-4D7D7CEF0EC0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11515,7 +11528,7 @@
               <xdr:cNvPr id="41" name="직사각형 40">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21BBC40-F5E4-4D5D-9FF6-FBF53DEA6B4A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11673,7 +11686,7 @@
               <xdr:cNvPr id="42" name="직사각형 41">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6394E7F-2C6F-483A-B9B3-68049E0F1ACA}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11831,7 +11844,7 @@
               <xdr:cNvPr id="43" name="직사각형 42">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EA68BE-13A8-4A0A-8E6A-B84DF66DD399}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11989,7 +12002,7 @@
               <xdr:cNvPr id="44" name="직사각형 43">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2D6A55-7449-471B-82E4-B99AC4D22548}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12150,7 +12163,7 @@
             <xdr:cNvPr id="15" name="그림 14" descr="케이크, 실내, 생일, 테이블이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C55776-DAA3-41CD-808D-80403A05F168}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12184,7 +12197,7 @@
             <xdr:cNvPr id="16" name="그룹 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA59D9A-7FBD-403E-8EA6-1072B46EDEE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12203,7 +12216,7 @@
               <xdr:cNvPr id="26" name="직사각형 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D0E5C5-A8FE-43CD-960A-A59619ACBFE2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12350,7 +12363,7 @@
               <xdr:cNvPr id="27" name="직사각형 26">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0202DF23-E397-4C71-95B6-09FC0C671713}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12506,7 +12519,7 @@
             <xdr:cNvPr id="17" name="그룹 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6E899D-8DE8-49FC-B5EA-1C56DBA9ACC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12525,7 +12538,7 @@
               <xdr:cNvPr id="24" name="직사각형 23">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2817996E-CD7B-4E27-83E7-2D34D5C2022D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12672,7 +12685,7 @@
               <xdr:cNvPr id="25" name="직사각형 24">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F1E461-0E2F-4215-96C8-6BE6020C6B5A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12828,7 +12841,7 @@
             <xdr:cNvPr id="18" name="그룹 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F5733C-CEA5-48FF-9352-96598F494E87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12847,7 +12860,7 @@
               <xdr:cNvPr id="22" name="직사각형 21">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EA337-FEF0-4FE9-94BE-856DA5A2EF1C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12994,7 +13007,7 @@
               <xdr:cNvPr id="23" name="직사각형 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B858A7C-ADFE-4288-84DE-0FD9FDE2C569}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13150,7 +13163,7 @@
             <xdr:cNvPr id="19" name="그룹 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E554CC5E-D7B5-437A-B26A-B45509E4B895}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13169,7 +13182,7 @@
               <xdr:cNvPr id="20" name="직사각형 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CD48EB-7B35-4B2F-A53E-4F712DEC6F15}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13316,7 +13329,7 @@
               <xdr:cNvPr id="21" name="직사각형 20">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1880F0-DB24-4F26-9B91-1226441F67FB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -13473,7 +13486,7 @@
           <xdr:cNvPr id="4" name="그림 3" descr="케이크, 실내, 생일, 테이블이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98E7F92-8012-4A42-BED4-F7F4329D80DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13508,7 +13521,7 @@
           <xdr:cNvPr id="5" name="직사각형 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC00A1A7-C2B4-4747-AD81-7CE6C80F3638}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13653,7 +13666,7 @@
           <xdr:cNvPr id="6" name="직사각형 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB12427-D6FA-44F3-AC5F-FEE951DA7B97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13798,7 +13811,7 @@
           <xdr:cNvPr id="7" name="직선 연결선 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410DFE26-117F-4894-8C09-7BA41D58A825}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13840,7 +13853,7 @@
           <xdr:cNvPr id="8" name="직선 연결선 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0522E1B1-B1BB-4969-8843-6CABC29DE92F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13882,7 +13895,7 @@
           <xdr:cNvPr id="9" name="직사각형 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E968C38-C001-4A91-BA73-C0BC72D5B4A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14041,7 +14054,7 @@
           <xdr:cNvPr id="10" name="직선 연결선 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F1156F-6521-47D9-B54F-7220F333FBDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14083,7 +14096,7 @@
           <xdr:cNvPr id="11" name="직사각형 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8573018-870D-40E0-A7F5-CE038111D4B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14242,7 +14255,7 @@
           <xdr:cNvPr id="12" name="직사각형 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B0E4E4-1328-4872-8FD9-B10237E59D08}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14399,7 +14412,7 @@
           <xdr:cNvPr id="13" name="직사각형 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C922F36-30E1-48F8-866C-1822DC1C3D9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14569,7 +14582,7 @@
         <xdr:cNvPr id="67" name="그룹 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39F961E-75DB-4F4B-A993-719C152F96CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14578,7 +14591,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="141514" y="0"/>
-          <a:ext cx="7420985" cy="3995743"/>
+          <a:ext cx="7425019" cy="3942403"/>
           <a:chOff x="92008" y="417689"/>
           <a:chExt cx="7436993" cy="3886886"/>
         </a:xfrm>
@@ -14588,7 +14601,7 @@
           <xdr:cNvPr id="68" name="그룹 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93096482-F65F-433C-9FAE-E28D3C9B8492}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14607,7 +14620,7 @@
             <xdr:cNvPr id="105" name="직사각형 104">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCC236-93D9-477D-A219-C87CB1865911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14754,7 +14767,7 @@
             <xdr:cNvPr id="106" name="직사각형 105">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F33F4F-8D4B-4331-9730-DCEF499B68C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14904,7 +14917,7 @@
             <xdr:cNvPr id="107" name="직사각형 106">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EE6BA8-D27A-4535-93FF-2901A876B7A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15054,7 +15067,7 @@
             <xdr:cNvPr id="108" name="그림 107" descr="건물, 집, 거리, 작은이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA77EF-0368-4FBD-988F-1EEAECF0A281}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15089,7 +15102,7 @@
             <xdr:cNvPr id="109" name="직사각형 108">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF6CB0-A1A4-4AAB-867C-09156642F194}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15246,7 +15259,7 @@
             <xdr:cNvPr id="110" name="직사각형 109">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC15F12F-FDC6-4AB4-8F0E-0CFA41068922}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15401,7 +15414,7 @@
           <xdr:cNvPr id="69" name="그룹 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825117B9-B848-4575-B41B-C864EE526257}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15420,7 +15433,7 @@
             <xdr:cNvPr id="85" name="직사각형 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F821D1-021E-4437-A099-3BF3E47F822B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15579,7 +15592,7 @@
             <xdr:cNvPr id="86" name="직사각형 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9F01C1-4500-47C7-A986-5F5D33420A64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15738,7 +15751,7 @@
             <xdr:cNvPr id="87" name="직사각형 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63509C01-C420-4F33-A210-CDA0248E2BE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15897,7 +15910,7 @@
             <xdr:cNvPr id="88" name="직사각형 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EAEB80-A0C6-4A24-95F3-3FE1E300D549}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16056,7 +16069,7 @@
             <xdr:cNvPr id="89" name="그림 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47219400-A5EA-40B9-92E1-B9102ADC9C2E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16091,7 +16104,7 @@
             <xdr:cNvPr id="90" name="그림 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29646CF0-D91E-478F-AC84-C2000EC8D40E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16126,7 +16139,7 @@
             <xdr:cNvPr id="91" name="그림 90" descr="건물, 실외, 컴퓨터, 도시이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B2680F-F5B5-4BCA-9121-33FE9F764E80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16160,7 +16173,7 @@
             <xdr:cNvPr id="92" name="그림 91" descr="케이크, 실내, 생일, 테이블이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272AA112-D5D3-452B-A4B4-64C9516E7D99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16194,7 +16207,7 @@
             <xdr:cNvPr id="93" name="그룹 92">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3167CF-23DE-418C-88B2-DA1EAFC90CB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16213,7 +16226,7 @@
               <xdr:cNvPr id="103" name="직사각형 102">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A7E835-877D-4C5F-BBB0-DD7AFF5E0580}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16360,7 +16373,7 @@
               <xdr:cNvPr id="104" name="직사각형 103">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B373FE8F-893A-4892-A817-64AF33C0D353}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16516,7 +16529,7 @@
             <xdr:cNvPr id="94" name="그룹 93">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4BE430-37D0-47FC-9887-5840627CABC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16535,7 +16548,7 @@
               <xdr:cNvPr id="101" name="직사각형 100">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEA3B40-B0D7-4337-A4A0-40E603C80B52}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16682,7 +16695,7 @@
               <xdr:cNvPr id="102" name="직사각형 101">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E23EB55-7C73-45C5-9979-661FF342DD20}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -16838,7 +16851,7 @@
             <xdr:cNvPr id="95" name="그룹 94">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C0EF1-8CA6-4D9F-93C2-B8FAAAB51092}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16857,7 +16870,7 @@
               <xdr:cNvPr id="99" name="직사각형 98">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411C2DB3-F7E7-43D3-9D21-E21C0162D0F3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17004,7 +17017,7 @@
               <xdr:cNvPr id="100" name="직사각형 99">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7370EEC-4E11-494A-9D95-593ACF8C50EF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17160,7 +17173,7 @@
             <xdr:cNvPr id="96" name="그룹 95">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3AA94A-8D3D-4962-BDDA-FFB4AC8905F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17179,7 +17192,7 @@
               <xdr:cNvPr id="97" name="직사각형 96">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF282D4-3684-45D5-97AB-DCA0C051ED6B}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17326,7 +17339,7 @@
               <xdr:cNvPr id="98" name="직사각형 97">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E47CED4-B917-4FA8-AF01-01A990F661B0}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -17483,7 +17496,7 @@
           <xdr:cNvPr id="70" name="직사각형 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D38BE1-EA61-4396-AFCB-019AF356D7A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17628,7 +17641,7 @@
           <xdr:cNvPr id="71" name="직선 연결선 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2646E6-C072-44B3-A4EB-E8DA411C030F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17670,7 +17683,7 @@
           <xdr:cNvPr id="72" name="직사각형 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244EA3FA-0770-4CA7-A825-C02DBC0E30E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17829,7 +17842,7 @@
           <xdr:cNvPr id="73" name="직사각형 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F050312A-FF13-4090-AD01-E35FABD68C4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17974,7 +17987,7 @@
           <xdr:cNvPr id="74" name="직사각형 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE418446-7BD1-427E-93D1-AA58BCEE13E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18119,7 +18132,7 @@
           <xdr:cNvPr id="75" name="직사각형 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA866E7E-21A9-4554-9124-0D1F46C96B5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18264,7 +18277,7 @@
           <xdr:cNvPr id="76" name="직사각형 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502458E2-BD70-44B2-A9E1-DF163A030301}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18409,7 +18422,7 @@
           <xdr:cNvPr id="77" name="직선 연결선 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0050EA5D-CE02-473D-ABA4-31AD21745A70}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18451,7 +18464,7 @@
           <xdr:cNvPr id="78" name="직선 연결선 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B14604-F76D-46C1-BC98-B6312AA677DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18493,7 +18506,7 @@
           <xdr:cNvPr id="79" name="직선 연결선 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE604474-0246-4D90-BFEA-522FAB6D9C91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18535,7 +18548,7 @@
           <xdr:cNvPr id="80" name="직선 연결선 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B79C69-025E-4121-9294-DDC07E0A46A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18577,7 +18590,7 @@
           <xdr:cNvPr id="81" name="직사각형 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B353F78-9E7E-4B21-927D-C00C8EAAB593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18736,7 +18749,7 @@
           <xdr:cNvPr id="82" name="직사각형 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D387733E-10E3-4B13-9F94-EAE0EFCCECB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18895,7 +18908,7 @@
           <xdr:cNvPr id="83" name="직사각형 82">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834A23A0-85BD-4A59-8775-9F0632B59320}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19054,7 +19067,7 @@
           <xdr:cNvPr id="84" name="직사각형 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CF808B-EFE8-4775-B27C-1A3A53EC8F86}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19229,7 +19242,7 @@
         <xdr:cNvPr id="111" name="직사각형 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3172914-A615-4266-AB77-053BDE174BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19402,7 +19415,7 @@
         <xdr:cNvPr id="112" name="직사각형 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046D2B9-9D14-4BF5-A018-E9D7153A51AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19577,7 +19590,7 @@
         <xdr:cNvPr id="113" name="직사각형 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EA68BE-13A8-4A0A-8E6A-B84DF66DD399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19737,20 +19750,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="직사각형 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF6048A-1ABE-4AA7-84DC-905E003491EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19758,8 +19771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10885714"/>
-          <a:ext cx="1077686" cy="293915"/>
+          <a:off x="0" y="11201400"/>
+          <a:ext cx="1074420" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19805,6 +19818,1489 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1997208</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2589122</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="그룹 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7E05CB-4F2F-465A-8E51-E25CE420D9B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4252728" y="2899635"/>
+          <a:ext cx="591914" cy="639245"/>
+          <a:chOff x="3894323" y="4563056"/>
+          <a:chExt cx="591914" cy="648658"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="직사각형 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC98C65-92F9-46F1-95B2-EF673F2E2856}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3946835" y="4621922"/>
+            <a:ext cx="539402" cy="589792"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="116" name="그룹 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCCF8BE-12A9-4F90-AF20-D8B076B251A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3894323" y="4563056"/>
+            <a:ext cx="227950" cy="249246"/>
+            <a:chOff x="2400975" y="3227453"/>
+            <a:chExt cx="230851" cy="252417"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="직사각형 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8475FFF8-F70A-43CF-83CE-178107AB863F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2452423" y="3288683"/>
+              <a:ext cx="133350" cy="133350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="직사각형 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72714511-06CB-4D33-9D26-8C538A882D5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400975" y="3227453"/>
+              <a:ext cx="230851" cy="252417"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>F</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="117" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FAD0A0-F7AA-4C89-90B2-B213909A0429}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4039897" y="4769929"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2008414</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2632236</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="직사각형 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256C0EE8-2694-4116-ADCA-2A20C5225DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263934" y="2941320"/>
+          <a:ext cx="623822" cy="616633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2328454</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2328455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="직선 연결선 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281695F5-6303-43D6-AF52-BAFC555B3A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4583974" y="3566160"/>
+          <a:ext cx="1" cy="259982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2259874</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2407346</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="직사각형 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8E2B79-C66B-4629-8D94-BDEC7C28378B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4515394" y="3710940"/>
+          <a:ext cx="147472" cy="213648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3132588</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3724502</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>140360</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="그룹 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC454E9-7B71-4916-A3E5-1A4277FAB855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5388108" y="9003255"/>
+          <a:ext cx="591914" cy="639245"/>
+          <a:chOff x="3894323" y="4563056"/>
+          <a:chExt cx="591914" cy="648658"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="직사각형 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3E0E35-805B-4F1A-852F-8B96C689FB8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3946835" y="4621922"/>
+            <a:ext cx="539402" cy="589792"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="125" name="그룹 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9EEA94-368A-4BF4-BEEE-49D753F26939}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3894323" y="4563056"/>
+            <a:ext cx="227950" cy="249246"/>
+            <a:chOff x="2400975" y="3227453"/>
+            <a:chExt cx="230851" cy="252417"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="127" name="직사각형 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A23D6D-B8CF-4495-9743-02DF67C75947}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2452423" y="3288683"/>
+              <a:ext cx="133350" cy="133350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="128" name="직사각형 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364C6753-0FFF-4247-903C-9F1526DDB9CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400975" y="3227453"/>
+              <a:ext cx="230851" cy="252417"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ko-KR"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>F</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="126" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FCEEAA-308B-422B-BAA4-B5CCD4ABD760}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4039897" y="4769929"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20179,7 +21675,7 @@
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -20193,7 +21689,7 @@
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
@@ -20225,8 +21721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC5EDC-E95F-4F0E-896C-D85D5AEC68F4}">
   <dimension ref="A20:D47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -20258,7 +21754,7 @@
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -20272,7 +21768,7 @@
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
@@ -20284,7 +21780,7 @@
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
@@ -20296,7 +21792,7 @@
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
@@ -20386,8 +21882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D518F11-8568-4410-A3B7-701ACAE5EC3E}">
   <dimension ref="A20:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -20419,7 +21915,7 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -20433,7 +21929,7 @@
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
@@ -20445,7 +21941,7 @@
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
@@ -20457,7 +21953,7 @@
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
@@ -20469,9 +21965,21 @@
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="19">
+        <v>6</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -20488,83 +21996,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+    <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="10">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" t="s">
-        <v>37</v>
+      <c r="D47" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D48" t="s">
-        <v>38</v>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="18" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+    <row r="62" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C21:C25"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A62:D62"/>
+    <mergeCell ref="C21:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4667D-9FCE-4BF0-B58D-70DCDA5A8AAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/유닛 및 건물/건물기능과UI(단순화).xlsx
+++ b/유닛 및 건물/건물기능과UI(단순화).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01168D82-B539-4A43-94CF-7F62E1D38EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50E07D-5200-4984-892A-142D0A8748A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7BA86FE3-6026-4542-9E9A-BAA3BB6360EB}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="건물UI" sheetId="6" r:id="rId2"/>
     <sheet name="훈련UI" sheetId="5" r:id="rId3"/>
     <sheet name="건물UI_2" sheetId="7" r:id="rId4"/>
+    <sheet name="훈련시스템" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -444,17 +445,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -478,10 +476,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25406,13 +25407,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>705721</xdr:colOff>
+      <xdr:colOff>682861</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>26254</xdr:rowOff>
     </xdr:to>
@@ -25429,8 +25430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="251460" y="160020"/>
-          <a:ext cx="1764901" cy="1413094"/>
+          <a:off x="228600" y="160020"/>
+          <a:ext cx="1763949" cy="1399759"/>
           <a:chOff x="3409428" y="1566346"/>
           <a:chExt cx="1681081" cy="1413094"/>
         </a:xfrm>
@@ -26911,16 +26912,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3406799</xdr:colOff>
+      <xdr:colOff>676076</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>188904</xdr:rowOff>
+      <xdr:rowOff>151266</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="73" name="그룹 72">
+        <xdr:cNvPr id="74" name="그룹 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26928,1043 +26929,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2485292" y="928790"/>
-          <a:ext cx="3055107" cy="365014"/>
-          <a:chOff x="2472530" y="2958981"/>
-          <a:chExt cx="3064000" cy="362730"/>
+          <a:off x="2485292" y="921170"/>
+          <a:ext cx="324384" cy="325471"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="74" name="그룹 73">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="타원 94">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2472530" y="2958981"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95" name="타원 94">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="96" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="75" name="그룹 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="1326125">
-            <a:off x="3019706" y="2972248"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="타원 92">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="94" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="76" name="그룹 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="2401212">
-            <a:off x="3550505" y="2989506"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="타원 90">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="92" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="77" name="그룹 76">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="3166179">
-            <a:off x="4079426" y="2990750"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="타원 88">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="90" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="78" name="그룹 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5222931">
-            <a:off x="4627250" y="2996383"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="타원 86">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="88" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="화살표: 오른쪽 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27972,12 +26948,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2829400" y="3096337"/>
-            <a:ext cx="141055" cy="71850"/>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
           </a:xfrm>
-          <a:prstGeom prst="rightArrow">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -28098,12 +27082,85 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9668038" y="2436653"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>897280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1221664</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>164617</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="그룹 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="1326125">
+          <a:off x="3030880" y="934521"/>
+          <a:ext cx="324384" cy="325471"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="화살표: 오른쪽 79">
+          <xdr:cNvPr id="93" name="타원 92">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28111,12 +27168,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3381650" y="3096337"/>
-            <a:ext cx="141055" cy="71850"/>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
           </a:xfrm>
-          <a:prstGeom prst="rightArrow">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -28237,12 +27302,85 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="94" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9668038" y="2436653"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1426538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1750922</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="76" name="그룹 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="2401212">
+          <a:off x="3560138" y="951887"/>
+          <a:ext cx="324384" cy="325471"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="화살표: 오른쪽 80">
+          <xdr:cNvPr id="91" name="타원 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28250,12 +27388,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3902496" y="3096337"/>
-            <a:ext cx="141055" cy="71850"/>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
           </a:xfrm>
-          <a:prstGeom prst="rightArrow">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -28376,12 +27522,85 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="92" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9668038" y="2436653"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1953924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2278308</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>183235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="그룹 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="3166179">
+          <a:off x="4086980" y="953683"/>
+          <a:ext cx="325471" cy="324384"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="화살표: 오른쪽 81">
+          <xdr:cNvPr id="89" name="타원 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28389,12 +27608,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4440628" y="3106322"/>
-            <a:ext cx="141055" cy="71850"/>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
           </a:xfrm>
-          <a:prstGeom prst="rightArrow">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -28515,12 +27742,85 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="90" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9668038" y="2436653"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2500158</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2824542</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188904</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="그룹 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5222931">
+          <a:off x="4633214" y="959352"/>
+          <a:ext cx="325471" cy="324384"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="화살표: 오른쪽 82">
+          <xdr:cNvPr id="87" name="타원 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28528,12 +27828,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5021733" y="3096337"/>
-            <a:ext cx="141055" cy="71850"/>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
           </a:xfrm>
-          <a:prstGeom prst="rightArrow">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -28654,211 +27962,1034 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="84" name="그룹 83">
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="88" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="7241742">
-            <a:off x="5211202" y="2979582"/>
-            <a:ext cx="325328" cy="325328"/>
-            <a:chOff x="9601226" y="2369841"/>
-            <a:chExt cx="485439" cy="485439"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9668038" y="2436653"/>
+            <a:ext cx="351813" cy="351813"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="타원 84">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9601226" y="2369841"/>
-              <a:ext cx="485439" cy="485439"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>707526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>848172</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="화살표: 오른쪽 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841126" y="1067011"/>
+          <a:ext cx="140646" cy="72302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1258173</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1398819</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="화살표: 오른쪽 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3391773" y="1067011"/>
+          <a:ext cx="140646" cy="72302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1777508</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1918154</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="화살표: 오른쪽 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911108" y="1067011"/>
+          <a:ext cx="140646" cy="72302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2314078</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>193139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2454724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="화살표: 오른쪽 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4447678" y="1077059"/>
+          <a:ext cx="140646" cy="72302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2893496</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3034142</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="화살표: 오른쪽 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5027096" y="1067011"/>
+          <a:ext cx="140646" cy="72302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3082415</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>65601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3406799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171997</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="84" name="그룹 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="7241742">
+          <a:off x="5215471" y="942445"/>
+          <a:ext cx="325471" cy="324384"/>
+          <a:chOff x="9601226" y="2369841"/>
+          <a:chExt cx="485439" cy="485439"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="타원 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601226" y="2369841"/>
+            <a:ext cx="485439" cy="485439"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="86" name="그래픽 3" descr="렌치">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9668038" y="2436653"/>
-              <a:ext cx="351813" cy="351813"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="86" name="그래픽 3" descr="렌치">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9666239" y="2437275"/>
+            <a:ext cx="351813" cy="351813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -29279,8 +29410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="78971" y="3843251"/>
-          <a:ext cx="2050473" cy="3592096"/>
+          <a:off x="78971" y="3816581"/>
+          <a:ext cx="2049521" cy="3561616"/>
           <a:chOff x="2524939" y="367646"/>
           <a:chExt cx="2494832" cy="4392889"/>
         </a:xfrm>
@@ -31184,7 +31315,7 @@
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -31198,7 +31329,7 @@
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
@@ -31263,7 +31394,7 @@
       <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -31277,7 +31408,7 @@
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
@@ -31289,7 +31420,7 @@
       <c r="B23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
@@ -31301,7 +31432,7 @@
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
@@ -31313,7 +31444,7 @@
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
@@ -31322,7 +31453,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
@@ -31372,12 +31503,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
@@ -31385,12 +31516,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
@@ -31398,42 +31529,42 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -31457,8 +31588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC5EDC-E95F-4F0E-896C-D85D5AEC68F4}">
   <dimension ref="A20:D47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -31490,7 +31621,7 @@
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -31504,7 +31635,7 @@
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
@@ -31516,7 +31647,7 @@
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
@@ -31528,7 +31659,7 @@
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
@@ -31618,8 +31749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4667D-9FCE-4BF0-B58D-70DCDA5A8AAA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -31631,15 +31762,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
@@ -31698,10 +31829,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31712,4 +31843,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748BE7EC-B635-4AE8-AAE0-9EB396CC0509}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>